--- a/BoundyShooter/BoundyShooter/Content/tutorial.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/tutorial.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>P</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>EB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ej</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -493,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O105" sqref="O105"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3139,11 +3143,11 @@
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" t="s">
-        <v>2</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>12</v>
       </c>
       <c r="O53">
         <v>0</v>

--- a/BoundyShooter/BoundyShooter/Content/tutorial.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/tutorial.xlsx
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>t5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>w</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -75,6 +71,10 @@
   </si>
   <si>
     <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2310,8 +2310,8 @@
       <c r="A37">
         <v>2</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2710,8 +2710,8 @@
       <c r="A45">
         <v>2</v>
       </c>
-      <c r="B45">
-        <v>0</v>
+      <c r="B45" t="s">
+        <v>12</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4079,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J74">
         <v>0</v>

--- a/BoundyShooter/BoundyShooter/Content/tutorial.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/tutorial.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>P</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +71,26 @@
   </si>
   <si>
     <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t6</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -129,7 +149,175 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -495,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P138"/>
+  <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P48" sqref="P1:P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1761,46 +1949,46 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>2</v>
@@ -2061,46 +2249,46 @@
         <v>2</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -2210,8 +2398,8 @@
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>17</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2710,8 +2898,8 @@
       <c r="A45">
         <v>2</v>
       </c>
-      <c r="B45" t="s">
-        <v>12</v>
+      <c r="B45">
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2981,26 +3169,26 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>0</v>
+      <c r="I50" t="s">
+        <v>12</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>13</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>2</v>
@@ -3038,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -3060,47 +3248,47 @@
       <c r="A52">
         <v>2</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52">
         <v>2</v>
@@ -3138,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -3146,8 +3334,8 @@
       <c r="M53">
         <v>0</v>
       </c>
-      <c r="N53" t="s">
-        <v>11</v>
+      <c r="N53">
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -3188,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -3238,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3288,19 +3476,19 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <v>2</v>
@@ -3410,8 +3598,8 @@
       <c r="A59">
         <v>2</v>
       </c>
-      <c r="B59">
-        <v>0</v>
+      <c r="B59" t="s">
+        <v>16</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3510,8 +3698,8 @@
       <c r="A61">
         <v>2</v>
       </c>
-      <c r="B61" t="s">
-        <v>8</v>
+      <c r="B61">
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -4013,8 +4201,8 @@
       <c r="B71">
         <v>0</v>
       </c>
-      <c r="C71" t="s">
-        <v>6</v>
+      <c r="C71">
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4046,8 +4234,8 @@
       <c r="M71">
         <v>0</v>
       </c>
-      <c r="N71" t="s">
-        <v>2</v>
+      <c r="N71">
+        <v>0</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -4078,11 +4266,11 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" t="s">
-        <v>9</v>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4111,22 +4299,22 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -4134,11 +4322,11 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" t="s">
-        <v>5</v>
-      </c>
-      <c r="K73" t="s">
-        <v>5</v>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4169,8 +4357,8 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74" t="s">
-        <v>1</v>
+      <c r="E74">
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4178,20 +4366,20 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" t="s">
-        <v>9</v>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4213,14 +4401,14 @@
       <c r="B75">
         <v>0</v>
       </c>
-      <c r="C75" t="s">
-        <v>2</v>
+      <c r="C75">
+        <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
-        <v>1</v>
+      <c r="E75">
+        <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4238,16 +4426,16 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
-      <c r="N75" t="s">
-        <v>2</v>
+      <c r="N75">
+        <v>0</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -4269,8 +4457,8 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76" t="s">
-        <v>1</v>
+      <c r="E76">
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4288,16 +4476,16 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
-      <c r="N76">
-        <v>0</v>
+      <c r="N76" t="s">
+        <v>11</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -4310,17 +4498,17 @@
       <c r="A77">
         <v>2</v>
       </c>
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1</v>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -4338,19 +4526,19 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77" t="s">
-        <v>1</v>
-      </c>
-      <c r="M77" t="s">
-        <v>1</v>
-      </c>
-      <c r="N77" t="s">
-        <v>1</v>
-      </c>
-      <c r="O77" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
       </c>
       <c r="P77">
         <v>2</v>
@@ -4388,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -4438,19 +4626,19 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79">
         <v>2</v>
@@ -4661,7 +4849,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5020,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -5041,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -5070,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -5091,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -5113,14 +5301,14 @@
       <c r="B93">
         <v>0</v>
       </c>
-      <c r="C93" t="s">
-        <v>2</v>
+      <c r="C93">
+        <v>0</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -5141,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
-      <c r="N93" t="s">
-        <v>2</v>
+      <c r="N93">
+        <v>0</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -5163,14 +5351,14 @@
       <c r="B94">
         <v>0</v>
       </c>
-      <c r="C94">
-        <v>0</v>
+      <c r="C94" t="s">
+        <v>6</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -5191,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
-      <c r="N94">
-        <v>0</v>
+      <c r="N94" t="s">
+        <v>2</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -5220,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5228,11 +5416,11 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" t="s">
+        <v>9</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5241,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -5261,22 +5449,22 @@
         <v>2</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
+      <c r="F96" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5284,23 +5472,23 @@
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
+      <c r="J96" t="s">
+        <v>5</v>
+      </c>
+      <c r="K96" t="s">
+        <v>5</v>
       </c>
       <c r="L96">
         <v>1</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96">
         <v>2</v>
@@ -5319,7 +5507,7 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="s">
         <v>1</v>
       </c>
       <c r="F97">
@@ -5328,11 +5516,11 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" t="s">
+        <v>9</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5340,7 +5528,7 @@
       <c r="K97">
         <v>0</v>
       </c>
-      <c r="L97">
+      <c r="L97" t="s">
         <v>1</v>
       </c>
       <c r="M97">
@@ -5363,13 +5551,13 @@
       <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98">
-        <v>0</v>
+      <c r="C98" t="s">
+        <v>2</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="s">
         <v>1</v>
       </c>
       <c r="F98">
@@ -5390,14 +5578,14 @@
       <c r="K98">
         <v>0</v>
       </c>
-      <c r="L98">
+      <c r="L98" t="s">
         <v>1</v>
       </c>
       <c r="M98">
         <v>0</v>
       </c>
-      <c r="N98">
-        <v>0</v>
+      <c r="N98" t="s">
+        <v>2</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -5419,7 +5607,7 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="s">
         <v>1</v>
       </c>
       <c r="F99">
@@ -5440,7 +5628,7 @@
       <c r="K99">
         <v>0</v>
       </c>
-      <c r="L99">
+      <c r="L99" t="s">
         <v>1</v>
       </c>
       <c r="M99">
@@ -5460,16 +5648,16 @@
       <c r="A100">
         <v>2</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
         <v>1</v>
       </c>
       <c r="F100">
@@ -5490,17 +5678,17 @@
       <c r="K100">
         <v>0</v>
       </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
+      <c r="L100" t="s">
+        <v>1</v>
+      </c>
+      <c r="M100" t="s">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1</v>
+      </c>
+      <c r="O100" t="s">
+        <v>1</v>
       </c>
       <c r="P100">
         <v>2</v>
@@ -5520,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -5541,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -5570,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -5591,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -5620,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -5641,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -5667,10 +5855,10 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -5691,10 +5879,10 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5811,7 +5999,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -6170,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -6191,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -6220,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -6241,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -6263,14 +6451,14 @@
       <c r="B116">
         <v>0</v>
       </c>
-      <c r="C116">
-        <v>0</v>
+      <c r="C116" t="s">
+        <v>2</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -6291,13 +6479,13 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116">
         <v>0</v>
       </c>
-      <c r="N116">
-        <v>0</v>
+      <c r="N116" t="s">
+        <v>2</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -6320,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -6341,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -6363,14 +6551,14 @@
       <c r="B118">
         <v>0</v>
       </c>
-      <c r="C118" t="s">
-        <v>2</v>
+      <c r="C118">
+        <v>0</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -6391,13 +6579,13 @@
         <v>0</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118">
         <v>0</v>
       </c>
-      <c r="N118" t="s">
-        <v>2</v>
+      <c r="N118">
+        <v>0</v>
       </c>
       <c r="O118">
         <v>0</v>
@@ -6420,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -6441,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -6461,13 +6649,13 @@
         <v>2</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6494,13 +6682,13 @@
         <v>1</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P120">
         <v>2</v>
@@ -6660,8 +6848,8 @@
       <c r="A124">
         <v>2</v>
       </c>
-      <c r="B124" t="s">
-        <v>3</v>
+      <c r="B124">
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -6817,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6844,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6870,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -6891,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="L128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -6920,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -6941,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -6960,8 +7148,8 @@
       <c r="A130">
         <v>2</v>
       </c>
-      <c r="B130">
-        <v>0</v>
+      <c r="B130" t="s">
+        <v>4</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -6970,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -6991,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -7020,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -7028,7 +7216,7 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
@@ -7041,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -7070,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -7091,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -7120,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -7141,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -7170,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -7191,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -7220,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -7241,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -7270,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -7291,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -7320,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -7341,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -7361,88 +7549,1238 @@
         <v>2</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
+        <v>2</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161">
+        <v>1</v>
+      </c>
+      <c r="P161">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A251:XFD1048576 Q1:XFD250 A1:P138">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Ej"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"EB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"fg"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"E2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
